--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetBiathlonEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetBiathlonEmptyMarketsList.xlsx
@@ -14,25 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>3241657  This game has no available Markets</t>
+    <t>3241657  This game has no available Markets:  Start time = 2022-11-14T11:00:00</t>
   </si>
   <si>
-    <t>3243551  This game has no available Markets</t>
+    <t>3243551  This game has no available Markets:  Start time = 2022-11-14T11:00:00</t>
   </si>
   <si>
-    <t>3243552  This game has no available Markets</t>
+    <t>3243552  This game has no available Markets:  Start time = 2022-11-14T11:00:00</t>
   </si>
   <si>
-    <t>3243553  This game has no available Markets</t>
+    <t>3243553  This game has no available Markets:  Start time = 2022-11-14T11:00:00</t>
   </si>
   <si>
-    <t>3243554  This game has no available Markets</t>
+    <t>3243554  This game has no available Markets:  Start time = 2022-11-14T11:00:00</t>
   </si>
   <si>
-    <t>3243555  This game has no available Markets</t>
+    <t>3243555  This game has no available Markets:  Start time = 2022-11-14T11:00:00</t>
   </si>
   <si>
-    <t>3243556  This game has no available Markets</t>
+    <t>3243556  This game has no available Markets:  Start time = 2022-11-14T11:00:00</t>
   </si>
 </sst>
 </file>
